--- a/test.xlsx
+++ b/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBF90B3-D3F5-486F-88D9-0991D51D2FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAC2C87-A6FE-4076-A7D6-4B5E467A7B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="30">
   <si>
     <t>ours</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,6 +98,29 @@
   <si>
     <t>ERR</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>metics1_std</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>metics2_std</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>metics3_std</t>
+  </si>
+  <si>
+    <t>metics4_std</t>
+  </si>
+  <si>
+    <t>metics5_std</t>
+  </si>
+  <si>
+    <t>metics6_std</t>
+  </si>
+  <si>
+    <t>metics7_std</t>
   </si>
 </sst>
 </file>
@@ -812,15 +835,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E81D0EB-A3A3-4164-B921-72CD2C686164}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>13</v>
       </c>
@@ -832,7 +855,7 @@
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>15</v>
       </c>
@@ -854,8 +877,29 @@
       <c r="H2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -869,7 +913,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -895,7 +939,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -921,7 +965,7 @@
         <v>3.857E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -947,7 +991,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -973,7 +1017,7 @@
         <v>3.1777E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -987,7 +1031,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1013,7 +1057,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1039,7 +1083,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1065,7 +1109,7 @@
         <v>4.1521000000000002E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1075,7 +1119,9 @@
       <c r="C12" s="2">
         <v>0.78251599999999999</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2">
+        <v>0.65600000000000003</v>
+      </c>
       <c r="E12" s="2">
         <v>0.49792399999999998</v>
       </c>
@@ -1088,8 +1134,29 @@
       <c r="H12" s="2">
         <v>0.52574500000000002</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J12" s="2">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="K12" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="L12" s="2">
+        <v>2.3E-2</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1.9E-2</v>
+      </c>
+      <c r="N12" s="2">
+        <v>1.6E-2</v>
+      </c>
+      <c r="O12" s="2">
+        <v>1.6E-2</v>
+      </c>
+      <c r="P12" s="2">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1101,7 +1168,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>0</v>
       </c>
